--- a/assets/findings/2024-02-10-findings.xlsx
+++ b/assets/findings/2024-02-10-findings.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-84" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,24 +433,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="36" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="42" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,90 +472,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -576,55 +582,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.871</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>10.553</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SECTION 8 HOUSING CHOICE VOUCHERS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1606818</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SCHOOL BREAKFAST PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>24871</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -632,9 +636,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -647,12 +651,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-004, 2022-005</t>
         </is>
@@ -674,55 +681,53 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.850</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>10.555</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PUBLIC AND INDIAN HOUSING</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1417463</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>147692</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -730,9 +735,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -745,12 +750,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-004, 2022-005</t>
         </is>
@@ -772,55 +780,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14.872</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>10.555</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PUBLIC HOUSING CAPITAL FUND</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>719380</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>34254</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -828,9 +834,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -843,12 +849,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2022-004, 2022-005</t>
         </is>
@@ -873,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,24 +893,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="36" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="36" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -922,90 +932,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1027,65 +1042,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0010</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>9889</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1103,7 +1116,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1125,65 +1141,63 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0011</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>303328</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1201,7 +1215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1223,65 +1240,63 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0012</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3750</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1299,7 +1314,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1324,7 +1342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,24 +1353,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="36" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="42" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1373,90 +1392,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1478,55 +1502,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.871</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>10.553</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SECTION 8 HOUSING CHOICE VOUCHERS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1606818</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SCHOOL BREAKFAST PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>24871</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -1534,9 +1556,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1549,12 +1571,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-004, 2022-005</t>
         </is>
@@ -1576,55 +1601,53 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14.850</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>10.555</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PUBLIC AND INDIAN HOUSING</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1417463</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>147692</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -1632,9 +1655,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1647,12 +1670,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-004, 2022-005</t>
         </is>
@@ -1674,55 +1700,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-003</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14.872</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>10.555</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PUBLIC HOUSING CAPITAL FUND</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>719380</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>34254</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -1730,9 +1754,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1745,12 +1769,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2022-004, 2022-005</t>
         </is>
@@ -1772,65 +1799,63 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0010</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>9889</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1848,7 +1873,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1870,65 +1898,63 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0011</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>303328</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1946,7 +1972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1968,65 +1997,63 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>HKXAULK2LJN3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>AWARD-0012</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>84.425</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>EDUCATION STABILIZATION FUND</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>3750</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2044,7 +2071,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/assets/findings/2024-02-10-findings.xlsx
+++ b/assets/findings/2024-02-10-findings.xlsx
@@ -623,8 +623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -656,8 +658,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -722,8 +726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,8 +761,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -821,8 +829,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -854,8 +864,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1083,8 +1095,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1116,8 +1130,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1182,8 +1198,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1215,8 +1233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1281,8 +1301,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1314,8 +1336,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1543,8 +1567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1576,8 +1602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1642,8 +1670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1675,8 +1705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1741,8 +1773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1774,8 +1808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1840,8 +1876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1873,8 +1911,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1939,8 +1979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1972,8 +2014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2038,8 +2082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2071,8 +2117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
